--- a/src/main/resources/excel/and_zhuanfu.xlsx
+++ b/src/main/resources/excel/and_zhuanfu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -701,6 +701,66 @@
   </si>
   <si>
     <t>10.135.122.91</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-141服</t>
+  </si>
+  <si>
+    <t>10.186.16.254</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-142服</t>
+  </si>
+  <si>
+    <t>10.186.11.20</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-143服</t>
+  </si>
+  <si>
+    <t>10.186.20.104</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-144服</t>
+  </si>
+  <si>
+    <t>10.186.19.162</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-145服</t>
+  </si>
+  <si>
+    <t>10.186.11.165</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-146服</t>
+  </si>
+  <si>
+    <t>10.186.16.173</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-147服</t>
+  </si>
+  <si>
+    <t>10.186.11.12</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-148服</t>
+  </si>
+  <si>
+    <t>10.186.15.172</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-149服</t>
+  </si>
+  <si>
+    <t>10.186.17.134</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-150服</t>
+  </si>
+  <si>
+    <t>10.186.21.38</t>
   </si>
 </sst>
 </file>
@@ -1153,10 +1213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81:D102"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101:D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2598,6 +2658,146 @@
         <v>20101</v>
       </c>
     </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103">
+        <v>3306</v>
+      </c>
+      <c r="D103">
+        <v>20102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104">
+        <v>3306</v>
+      </c>
+      <c r="D104">
+        <v>20103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105">
+        <v>3306</v>
+      </c>
+      <c r="D105">
+        <v>20104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106">
+        <v>3306</v>
+      </c>
+      <c r="D106">
+        <v>20105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107">
+        <v>3306</v>
+      </c>
+      <c r="D107">
+        <v>20106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108">
+        <v>3306</v>
+      </c>
+      <c r="D108">
+        <v>20107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109">
+        <v>3306</v>
+      </c>
+      <c r="D109">
+        <v>20108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110">
+        <v>3306</v>
+      </c>
+      <c r="D110">
+        <v>20109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111">
+        <v>3306</v>
+      </c>
+      <c r="D111">
+        <v>20110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112">
+        <v>3306</v>
+      </c>
+      <c r="D112">
+        <v>20111</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excel/and_zhuanfu.xlsx
+++ b/src/main/resources/excel/and_zhuanfu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -542,6 +542,14 @@
   <si>
     <t>不良人安卓专服WEB-038-040服</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaoye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseServerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -982,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="Q60" sqref="Q60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -994,9 +1002,10 @@
     <col min="2" max="2" width="18.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1012,8 +1021,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -1026,8 +1041,14 @@
       <c r="D2">
         <v>20001</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
@@ -1040,8 +1061,14 @@
       <c r="D3">
         <v>20002</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>47</v>
       </c>
@@ -1054,8 +1081,14 @@
       <c r="D4">
         <v>20003</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
@@ -1068,8 +1101,14 @@
       <c r="D5">
         <v>20004</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>50</v>
       </c>
@@ -1082,8 +1121,14 @@
       <c r="D6">
         <v>20005</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>105</v>
       </c>
@@ -1096,8 +1141,14 @@
       <c r="D7">
         <v>20006</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
@@ -1110,8 +1161,14 @@
       <c r="D8">
         <v>20007</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>107</v>
       </c>
@@ -1124,8 +1181,14 @@
       <c r="D9">
         <v>20008</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>55</v>
       </c>
@@ -1138,8 +1201,14 @@
       <c r="D10">
         <v>20009</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
         <v>56</v>
       </c>
@@ -1152,8 +1221,14 @@
       <c r="D11">
         <v>20010</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>57</v>
       </c>
@@ -1166,8 +1241,14 @@
       <c r="D12">
         <v>20011</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>145</v>
       </c>
@@ -1180,8 +1261,14 @@
       <c r="D13">
         <v>20012</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>146</v>
       </c>
@@ -1194,8 +1281,14 @@
       <c r="D14">
         <v>20013</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>58</v>
       </c>
@@ -1208,8 +1301,14 @@
       <c r="D15">
         <v>20014</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>59</v>
       </c>
@@ -1222,8 +1321,14 @@
       <c r="D16">
         <v>20015</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>60</v>
       </c>
@@ -1236,8 +1341,14 @@
       <c r="D17">
         <v>20016</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>108</v>
       </c>
@@ -1250,8 +1361,14 @@
       <c r="D18">
         <v>20017</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>61</v>
       </c>
@@ -1264,8 +1381,14 @@
       <c r="D19">
         <v>20018</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>109</v>
       </c>
@@ -1278,8 +1401,14 @@
       <c r="D20">
         <v>20019</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
         <v>110</v>
       </c>
@@ -1292,8 +1421,14 @@
       <c r="D21">
         <v>20020</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
         <v>111</v>
       </c>
@@ -1306,8 +1441,14 @@
       <c r="D22">
         <v>20021</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="6" t="s">
         <v>112</v>
       </c>
@@ -1320,8 +1461,14 @@
       <c r="D23">
         <v>20022</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="6" t="s">
         <v>113</v>
       </c>
@@ -1334,8 +1481,14 @@
       <c r="D24">
         <v>20023</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="6" t="s">
         <v>115</v>
       </c>
@@ -1348,8 +1501,14 @@
       <c r="D25">
         <v>20024</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="6" t="s">
         <v>116</v>
       </c>
@@ -1362,8 +1521,14 @@
       <c r="D26">
         <v>20025</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="6" t="s">
         <v>117</v>
       </c>
@@ -1376,8 +1541,14 @@
       <c r="D27">
         <v>20026</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="6" t="s">
         <v>118</v>
       </c>
@@ -1390,8 +1561,14 @@
       <c r="D28">
         <v>20027</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="6" t="s">
         <v>119</v>
       </c>
@@ -1404,8 +1581,14 @@
       <c r="D29">
         <v>20028</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="6" t="s">
         <v>120</v>
       </c>
@@ -1418,8 +1601,14 @@
       <c r="D30">
         <v>20029</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="6" t="s">
         <v>121</v>
       </c>
@@ -1432,8 +1621,14 @@
       <c r="D31">
         <v>20030</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="6" t="s">
         <v>122</v>
       </c>
@@ -1446,8 +1641,14 @@
       <c r="D32">
         <v>20031</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="6" t="s">
         <v>123</v>
       </c>
@@ -1460,8 +1661,14 @@
       <c r="D33">
         <v>20032</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="6" t="s">
         <v>124</v>
       </c>
@@ -1474,8 +1681,14 @@
       <c r="D34">
         <v>20033</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="6" t="s">
         <v>125</v>
       </c>
@@ -1488,8 +1701,14 @@
       <c r="D35">
         <v>20034</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="6" t="s">
         <v>126</v>
       </c>
@@ -1502,8 +1721,14 @@
       <c r="D36">
         <v>20035</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="5" t="s">
         <v>31</v>
       </c>
@@ -1516,8 +1741,14 @@
       <c r="D37">
         <v>20036</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="5" t="s">
         <v>33</v>
       </c>
@@ -1530,8 +1761,14 @@
       <c r="D38">
         <v>20037</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="5" t="s">
         <v>35</v>
       </c>
@@ -1544,8 +1781,14 @@
       <c r="D39">
         <v>20038</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
@@ -1558,8 +1801,14 @@
       <c r="D40">
         <v>20039</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
@@ -1572,8 +1821,14 @@
       <c r="D41">
         <v>20040</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="5" t="s">
         <v>41</v>
       </c>
@@ -1586,8 +1841,14 @@
       <c r="D42">
         <v>20041</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="5" t="s">
         <v>62</v>
       </c>
@@ -1600,8 +1861,14 @@
       <c r="D43">
         <v>20042</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="5" t="s">
         <v>64</v>
       </c>
@@ -1614,8 +1881,14 @@
       <c r="D44">
         <v>20043</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="5" t="s">
         <v>65</v>
       </c>
@@ -1628,8 +1901,14 @@
       <c r="D45">
         <v>20044</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="5" t="s">
         <v>67</v>
       </c>
@@ -1642,8 +1921,14 @@
       <c r="D46">
         <v>20045</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="5" t="s">
         <v>129</v>
       </c>
@@ -1656,8 +1941,14 @@
       <c r="D47">
         <v>20046</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="5" t="s">
         <v>130</v>
       </c>
@@ -1670,8 +1961,14 @@
       <c r="D48">
         <v>20047</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="5" t="s">
         <v>131</v>
       </c>
@@ -1684,8 +1981,14 @@
       <c r="D49">
         <v>20048</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="5" t="s">
         <v>132</v>
       </c>
@@ -1698,8 +2001,14 @@
       <c r="D50">
         <v>20049</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="5" t="s">
         <v>133</v>
       </c>
@@ -1712,8 +2021,14 @@
       <c r="D51">
         <v>20050</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="5" t="s">
         <v>72</v>
       </c>
@@ -1726,8 +2041,14 @@
       <c r="D52">
         <v>20051</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="5" t="s">
         <v>136</v>
       </c>
@@ -1740,8 +2061,14 @@
       <c r="D53">
         <v>20052</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="5" t="s">
         <v>138</v>
       </c>
@@ -1754,8 +2081,14 @@
       <c r="D54">
         <v>20053</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="5" t="s">
         <v>140</v>
       </c>
@@ -1768,8 +2101,14 @@
       <c r="D55">
         <v>20054</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="5" t="s">
         <v>142</v>
       </c>
@@ -1782,8 +2121,14 @@
       <c r="D56">
         <v>20055</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="5" t="s">
         <v>144</v>
       </c>
@@ -1796,8 +2141,14 @@
       <c r="D57">
         <v>20056</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="5" t="s">
         <v>94</v>
       </c>
@@ -1810,8 +2161,14 @@
       <c r="D58">
         <v>20057</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="5" t="s">
         <v>96</v>
       </c>
@@ -1824,8 +2181,14 @@
       <c r="D59">
         <v>20058</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="5" t="s">
         <v>98</v>
       </c>
@@ -1838,8 +2201,14 @@
       <c r="D60">
         <v>20059</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="5" t="s">
         <v>100</v>
       </c>
@@ -1852,8 +2221,14 @@
       <c r="D61">
         <v>20060</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="5" t="s">
         <v>102</v>
       </c>
@@ -1866,8 +2241,14 @@
       <c r="D62">
         <v>20061</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="3" t="s">
         <v>73</v>
       </c>
@@ -1880,8 +2261,14 @@
       <c r="D63">
         <v>20062</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="3" t="s">
         <v>75</v>
       </c>
@@ -1894,8 +2281,14 @@
       <c r="D64">
         <v>20063</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="3" t="s">
         <v>77</v>
       </c>
@@ -1908,8 +2301,14 @@
       <c r="D65">
         <v>20064</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="3" t="s">
         <v>79</v>
       </c>
@@ -1922,8 +2321,14 @@
       <c r="D66">
         <v>20065</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="3" t="s">
         <v>81</v>
       </c>
@@ -1936,8 +2341,14 @@
       <c r="D67">
         <v>20066</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="3" t="s">
         <v>83</v>
       </c>
@@ -1950,8 +2361,14 @@
       <c r="D68">
         <v>20067</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="3" t="s">
         <v>85</v>
       </c>
@@ -1964,8 +2381,14 @@
       <c r="D69">
         <v>20068</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="3" t="s">
         <v>87</v>
       </c>
@@ -1978,8 +2401,14 @@
       <c r="D70">
         <v>20069</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="3" t="s">
         <v>89</v>
       </c>
@@ -1992,8 +2421,14 @@
       <c r="D71">
         <v>20070</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="3" t="s">
         <v>91</v>
       </c>
@@ -2005,10 +2440,17 @@
       </c>
       <c r="D72">
         <v>20071</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/excel/and_zhuanfu.xlsx
+++ b/src/main/resources/excel/and_zhuanfu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -549,6 +549,165 @@
   </si>
   <si>
     <t>baseServerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRedis</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-151服</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-152服</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-153服</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-154服</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-155服</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-156服</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-157服</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-158服</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-159服</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-160服</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-161服</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-162服</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-163服</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-164服</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-165服</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-166服</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-167服</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-168服</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-169服</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-170服</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-171服</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-172服</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-173服</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-174服</t>
+  </si>
+  <si>
+    <t>不良人安卓专服WEB-175服</t>
+  </si>
+  <si>
+    <t>10.135.81.124</t>
+  </si>
+  <si>
+    <t>10.135.73.155</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.186.33.163</t>
+  </si>
+  <si>
+    <t>10.186.29.139</t>
+  </si>
+  <si>
+    <t>10.186.43.145</t>
+  </si>
+  <si>
+    <t>10.135.135.162</t>
+  </si>
+  <si>
+    <t>10.186.42.28</t>
+  </si>
+  <si>
+    <t>10.135.187.0</t>
+  </si>
+  <si>
+    <t>10.186.44.115</t>
+  </si>
+  <si>
+    <t>10.135.97.163</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.135.120.186</t>
+  </si>
+  <si>
+    <t>10.135.80.234</t>
+  </si>
+  <si>
+    <t>10.135.110.68</t>
+  </si>
+  <si>
+    <t>10.186.0.8</t>
+  </si>
+  <si>
+    <t>10.104.186.255</t>
+  </si>
+  <si>
+    <t>10.104.234.110</t>
+  </si>
+  <si>
+    <t>10.135.62.230</t>
+  </si>
+  <si>
+    <t>10.135.161.131</t>
+  </si>
+  <si>
+    <t>10.104.147.214</t>
+  </si>
+  <si>
+    <t>10.135.58.70</t>
+  </si>
+  <si>
+    <t>10.135.71.229</t>
+  </si>
+  <si>
+    <t>10.135.27.58</t>
+  </si>
+  <si>
+    <t>10.104.200.187</t>
+  </si>
+  <si>
+    <t>10.104.53.142</t>
+  </si>
+  <si>
+    <t>10.104.176.179</t>
+  </si>
+  <si>
+    <t>redisLocalPortAdd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +715,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,6 +760,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -663,7 +831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -684,6 +852,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -990,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G72"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1003,9 +1174,10 @@
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1027,8 +1199,14 @@
       <c r="G1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -1047,8 +1225,14 @@
       <c r="G2">
         <v>5000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
@@ -1067,8 +1251,14 @@
       <c r="G3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>47</v>
       </c>
@@ -1087,8 +1277,14 @@
       <c r="G4">
         <v>5000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
@@ -1107,8 +1303,14 @@
       <c r="G5">
         <v>5000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>50</v>
       </c>
@@ -1127,8 +1329,14 @@
       <c r="G6">
         <v>5000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>105</v>
       </c>
@@ -1147,8 +1355,14 @@
       <c r="G7">
         <v>5000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
@@ -1167,8 +1381,14 @@
       <c r="G8">
         <v>5000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
         <v>107</v>
       </c>
@@ -1187,8 +1407,14 @@
       <c r="G9">
         <v>5000</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>55</v>
       </c>
@@ -1207,8 +1433,14 @@
       <c r="G10">
         <v>5000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
         <v>56</v>
       </c>
@@ -1227,8 +1459,14 @@
       <c r="G11">
         <v>5000</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
         <v>57</v>
       </c>
@@ -1247,8 +1485,14 @@
       <c r="G12">
         <v>5000</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
         <v>145</v>
       </c>
@@ -1267,8 +1511,14 @@
       <c r="G13">
         <v>5000</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
         <v>146</v>
       </c>
@@ -1287,8 +1537,14 @@
       <c r="G14">
         <v>5000</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
         <v>58</v>
       </c>
@@ -1307,8 +1563,14 @@
       <c r="G15">
         <v>5000</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>59</v>
       </c>
@@ -1327,8 +1589,14 @@
       <c r="G16">
         <v>5000</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
         <v>60</v>
       </c>
@@ -1347,8 +1615,14 @@
       <c r="G17">
         <v>5000</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
         <v>108</v>
       </c>
@@ -1367,8 +1641,14 @@
       <c r="G18">
         <v>5000</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
         <v>61</v>
       </c>
@@ -1387,8 +1667,14 @@
       <c r="G19">
         <v>5000</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
         <v>109</v>
       </c>
@@ -1407,8 +1693,14 @@
       <c r="G20">
         <v>5000</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="6" t="s">
         <v>110</v>
       </c>
@@ -1427,8 +1719,14 @@
       <c r="G21">
         <v>5000</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="6" t="s">
         <v>111</v>
       </c>
@@ -1447,8 +1745,14 @@
       <c r="G22">
         <v>5000</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="6" t="s">
         <v>112</v>
       </c>
@@ -1467,8 +1771,14 @@
       <c r="G23">
         <v>5000</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="6" t="s">
         <v>113</v>
       </c>
@@ -1487,8 +1797,14 @@
       <c r="G24">
         <v>5000</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="6" t="s">
         <v>115</v>
       </c>
@@ -1507,8 +1823,14 @@
       <c r="G25">
         <v>5000</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="6" t="s">
         <v>116</v>
       </c>
@@ -1527,8 +1849,14 @@
       <c r="G26">
         <v>5000</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="6" t="s">
         <v>117</v>
       </c>
@@ -1547,8 +1875,14 @@
       <c r="G27">
         <v>5000</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="6" t="s">
         <v>118</v>
       </c>
@@ -1567,8 +1901,14 @@
       <c r="G28">
         <v>5000</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="6" t="s">
         <v>119</v>
       </c>
@@ -1587,8 +1927,14 @@
       <c r="G29">
         <v>5000</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="6" t="s">
         <v>120</v>
       </c>
@@ -1607,8 +1953,14 @@
       <c r="G30">
         <v>5000</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="6" t="s">
         <v>121</v>
       </c>
@@ -1627,8 +1979,14 @@
       <c r="G31">
         <v>5000</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="6" t="s">
         <v>122</v>
       </c>
@@ -1647,8 +2005,14 @@
       <c r="G32">
         <v>5000</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="6" t="s">
         <v>123</v>
       </c>
@@ -1667,8 +2031,14 @@
       <c r="G33">
         <v>5000</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="6" t="s">
         <v>124</v>
       </c>
@@ -1687,8 +2057,14 @@
       <c r="G34">
         <v>5000</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="6" t="s">
         <v>125</v>
       </c>
@@ -1707,8 +2083,14 @@
       <c r="G35">
         <v>5000</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="6" t="s">
         <v>126</v>
       </c>
@@ -1727,8 +2109,14 @@
       <c r="G36">
         <v>5000</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="5" t="s">
         <v>31</v>
       </c>
@@ -1747,8 +2135,14 @@
       <c r="G37">
         <v>5000</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="5" t="s">
         <v>33</v>
       </c>
@@ -1767,8 +2161,14 @@
       <c r="G38">
         <v>5000</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
         <v>35</v>
       </c>
@@ -1787,8 +2187,14 @@
       <c r="G39">
         <v>5000</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
@@ -1807,8 +2213,14 @@
       <c r="G40">
         <v>5000</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
@@ -1827,8 +2239,14 @@
       <c r="G41">
         <v>5000</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="5" t="s">
         <v>41</v>
       </c>
@@ -1847,8 +2265,14 @@
       <c r="G42">
         <v>5000</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="5" t="s">
         <v>62</v>
       </c>
@@ -1867,8 +2291,14 @@
       <c r="G43">
         <v>5000</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="5" t="s">
         <v>64</v>
       </c>
@@ -1887,8 +2317,14 @@
       <c r="G44">
         <v>5000</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="5" t="s">
         <v>65</v>
       </c>
@@ -1907,8 +2343,14 @@
       <c r="G45">
         <v>5000</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
         <v>67</v>
       </c>
@@ -1927,8 +2369,14 @@
       <c r="G46">
         <v>5000</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="5" t="s">
         <v>129</v>
       </c>
@@ -1947,8 +2395,14 @@
       <c r="G47">
         <v>5000</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="5" t="s">
         <v>130</v>
       </c>
@@ -1967,8 +2421,14 @@
       <c r="G48">
         <v>5000</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="5" t="s">
         <v>131</v>
       </c>
@@ -1987,8 +2447,14 @@
       <c r="G49">
         <v>5000</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="5" t="s">
         <v>132</v>
       </c>
@@ -2007,8 +2473,14 @@
       <c r="G50">
         <v>5000</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
         <v>133</v>
       </c>
@@ -2027,8 +2499,14 @@
       <c r="G51">
         <v>5000</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="5" t="s">
         <v>72</v>
       </c>
@@ -2047,8 +2525,14 @@
       <c r="G52">
         <v>5000</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="5" t="s">
         <v>136</v>
       </c>
@@ -2067,8 +2551,14 @@
       <c r="G53">
         <v>5000</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="5" t="s">
         <v>138</v>
       </c>
@@ -2087,8 +2577,14 @@
       <c r="G54">
         <v>5000</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="5" t="s">
         <v>140</v>
       </c>
@@ -2107,8 +2603,14 @@
       <c r="G55">
         <v>5000</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="5" t="s">
         <v>142</v>
       </c>
@@ -2127,8 +2629,14 @@
       <c r="G56">
         <v>5000</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="5" t="s">
         <v>144</v>
       </c>
@@ -2147,8 +2655,14 @@
       <c r="G57">
         <v>5000</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="5" t="s">
         <v>94</v>
       </c>
@@ -2167,8 +2681,14 @@
       <c r="G58">
         <v>5000</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="5" t="s">
         <v>96</v>
       </c>
@@ -2187,8 +2707,14 @@
       <c r="G59">
         <v>5000</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="5" t="s">
         <v>98</v>
       </c>
@@ -2207,8 +2733,14 @@
       <c r="G60">
         <v>5000</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="5" t="s">
         <v>100</v>
       </c>
@@ -2227,8 +2759,14 @@
       <c r="G61">
         <v>5000</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="5" t="s">
         <v>102</v>
       </c>
@@ -2247,8 +2785,14 @@
       <c r="G62">
         <v>5000</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="3" t="s">
         <v>73</v>
       </c>
@@ -2267,8 +2811,14 @@
       <c r="G63">
         <v>5000</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="3" t="s">
         <v>75</v>
       </c>
@@ -2287,8 +2837,14 @@
       <c r="G64">
         <v>5000</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="3" t="s">
         <v>77</v>
       </c>
@@ -2307,8 +2863,14 @@
       <c r="G65">
         <v>5000</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="3" t="s">
         <v>79</v>
       </c>
@@ -2327,8 +2889,14 @@
       <c r="G66">
         <v>5000</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="3" t="s">
         <v>81</v>
       </c>
@@ -2347,8 +2915,14 @@
       <c r="G67">
         <v>5000</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="3" t="s">
         <v>83</v>
       </c>
@@ -2367,8 +2941,14 @@
       <c r="G68">
         <v>5000</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="3" t="s">
         <v>85</v>
       </c>
@@ -2387,8 +2967,14 @@
       <c r="G69">
         <v>5000</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="3" t="s">
         <v>87</v>
       </c>
@@ -2407,8 +2993,14 @@
       <c r="G70">
         <v>5000</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="3" t="s">
         <v>89</v>
       </c>
@@ -2427,8 +3019,14 @@
       <c r="G71">
         <v>5000</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="3" t="s">
         <v>91</v>
       </c>
@@ -2446,6 +3044,662 @@
       </c>
       <c r="G72">
         <v>5000</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C73">
+        <v>3306</v>
+      </c>
+      <c r="D73">
+        <v>20072</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>5000</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74">
+        <v>3306</v>
+      </c>
+      <c r="D74">
+        <v>20073</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>5000</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75">
+        <v>3306</v>
+      </c>
+      <c r="D75">
+        <v>20074</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>5000</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C76">
+        <v>3306</v>
+      </c>
+      <c r="D76">
+        <v>20075</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>5000</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C77">
+        <v>3306</v>
+      </c>
+      <c r="D77">
+        <v>20076</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>5000</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C78">
+        <v>3306</v>
+      </c>
+      <c r="D78">
+        <v>20077</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>5000</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79">
+        <v>3306</v>
+      </c>
+      <c r="D79">
+        <v>20078</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>5000</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C80">
+        <v>3306</v>
+      </c>
+      <c r="D80">
+        <v>20079</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>5000</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C81">
+        <v>3306</v>
+      </c>
+      <c r="D81">
+        <v>20080</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>5000</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82">
+        <v>3306</v>
+      </c>
+      <c r="D82">
+        <v>20081</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>5000</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83">
+        <v>3306</v>
+      </c>
+      <c r="D83">
+        <v>20082</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>5000</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C84">
+        <v>3306</v>
+      </c>
+      <c r="D84">
+        <v>20083</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>5000</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C85">
+        <v>3306</v>
+      </c>
+      <c r="D85">
+        <v>20084</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>5000</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86">
+        <v>3306</v>
+      </c>
+      <c r="D86">
+        <v>20085</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>5000</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C87">
+        <v>3306</v>
+      </c>
+      <c r="D87">
+        <v>20086</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>5000</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88">
+        <v>3306</v>
+      </c>
+      <c r="D88">
+        <v>20087</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>5000</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C89">
+        <v>3306</v>
+      </c>
+      <c r="D89">
+        <v>20088</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>5000</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C90">
+        <v>3306</v>
+      </c>
+      <c r="D90">
+        <v>20089</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>5000</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C91">
+        <v>3306</v>
+      </c>
+      <c r="D91">
+        <v>20090</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>5000</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C92">
+        <v>3306</v>
+      </c>
+      <c r="D92">
+        <v>20091</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>5000</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93">
+        <v>3306</v>
+      </c>
+      <c r="D93">
+        <v>20092</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>5000</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94">
+        <v>3306</v>
+      </c>
+      <c r="D94">
+        <v>20093</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>5000</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95">
+        <v>3306</v>
+      </c>
+      <c r="D95">
+        <v>20094</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>5000</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C96">
+        <v>3306</v>
+      </c>
+      <c r="D96">
+        <v>20095</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>5000</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C97">
+        <v>3306</v>
+      </c>
+      <c r="D97">
+        <v>20096</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>5000</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
